--- a/src/main/webapp/assets/exceltpl/operation.xlsx
+++ b/src/main/webapp/assets/exceltpl/operation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21576" windowHeight="9684"/>
+    <workbookView windowWidth="21791" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="operation" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>*工序名称</t>
   </si>
   <si>
-    <t>*所属工种名称</t>
+    <t>*所属工种编码</t>
   </si>
   <si>
     <t>备注</t>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
